--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2103.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2103.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.12352290782185</v>
+        <v>3.5316481590271</v>
       </c>
       <c r="B1">
-        <v>2.5495512739343</v>
+        <v>2.866567373275757</v>
       </c>
       <c r="C1">
-        <v>2.259722892980189</v>
+        <v>2.071220636367798</v>
       </c>
       <c r="D1">
-        <v>2.480577025470507</v>
+        <v>1.913193345069885</v>
       </c>
       <c r="E1">
-        <v>3.081372678520616</v>
+        <v>1.974348902702332</v>
       </c>
     </row>
   </sheetData>
